--- a/wash_P/VEN.xlsx
+++ b/wash_P/VEN.xlsx
@@ -62894,7 +62894,7 @@
         <v>0</v>
       </c>
       <c r="LE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="LF20" t="n">
         <v>0</v>
@@ -84094,7 +84094,7 @@
         <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH27" t="n">
         <v>0</v>
@@ -86086,7 +86086,7 @@
         <v>0</v>
       </c>
       <c r="ABU27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABV27" t="n">
         <v>0</v>
@@ -86317,7 +86317,7 @@
         <v>0</v>
       </c>
       <c r="AET27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AEU27" t="n">
         <v>0</v>
@@ -89229,7 +89229,7 @@
         <v>0</v>
       </c>
       <c r="ABZ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ACA28" t="n">
         <v>0</v>
@@ -93215,7 +93215,7 @@
         <v>0</v>
       </c>
       <c r="AMZ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ANA29" t="n">
         <v>0</v>
